--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 0 (8, 45, 1, 2, 24)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(8, 45, 1, 2, 24)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 0 (8, 45, 1, 2, 24)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(8, 45, 1, 2, 24)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5140307535285328</v>
+        <v>0.5139512148474251</v>
       </c>
       <c r="E2">
-        <v>0.5140307535285328</v>
+        <v>0.5139512148474251</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.05335367571970361</v>
+        <v>0.05336649788479372</v>
       </c>
       <c r="E3">
-        <v>0.05335367571970361</v>
+        <v>0.05336649788479372</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9540878825261845</v>
+        <v>0.9540610685195027</v>
       </c>
       <c r="E4">
-        <v>0.9540878825261845</v>
+        <v>0.9540610685195027</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.08434519942715632</v>
+        <v>0.08388406060402366</v>
       </c>
       <c r="E5">
-        <v>0.08434519942715632</v>
+        <v>0.08388406060402366</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.3056067760619607</v>
+        <v>0.3056109820657453</v>
       </c>
       <c r="E6">
-        <v>0.3056067760619607</v>
+        <v>0.3056109820657453</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9963832660799551</v>
+        <v>0.01311402592312782</v>
       </c>
       <c r="E7">
-        <v>0.003616733920044912</v>
+        <v>0.9868859740768722</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9962575685787574</v>
+        <v>0.9999997681607704</v>
       </c>
       <c r="E8">
-        <v>0.003742431421242642</v>
+        <v>2.318392295919125E-07</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9960670661866884</v>
+        <v>0.01076902248370695</v>
       </c>
       <c r="E9">
-        <v>0.003932933813311612</v>
+        <v>0.9892309775162931</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9960261031749054</v>
+        <v>8.954343352918926E-06</v>
       </c>
       <c r="E10">
-        <v>0.003973896825094636</v>
+        <v>0.9999910456566471</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.996642628690653</v>
+        <v>0.8815309161321236</v>
       </c>
       <c r="E11">
-        <v>0.00335737130934699</v>
+        <v>0.1184690838678764</v>
       </c>
       <c r="F11">
-        <v>0.4328956604003906</v>
+        <v>2.492368698120117</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8648499194706918</v>
+        <v>0.864943704562085</v>
       </c>
       <c r="E12">
-        <v>0.8648499194706918</v>
+        <v>0.864943704562085</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.0003044354163091602</v>
+        <v>0.0003041263417208692</v>
       </c>
       <c r="E13">
-        <v>0.0003044354163091602</v>
+        <v>0.0003041263417208692</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9984877498098098</v>
+        <v>0.9984806140815013</v>
       </c>
       <c r="E14">
-        <v>0.9984877498098098</v>
+        <v>0.9984806140815013</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>5.03007690065546E-05</v>
+        <v>4.995386057508059E-05</v>
       </c>
       <c r="E15">
-        <v>5.03007690065546E-05</v>
+        <v>4.995386057508059E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.2473334405527826</v>
+        <v>0.2472214546743322</v>
       </c>
       <c r="E16">
-        <v>0.2473334405527826</v>
+        <v>0.2472214546743322</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9998158345651499</v>
+        <v>4.810483647856802E-06</v>
       </c>
       <c r="E17">
-        <v>0.0001841654348501143</v>
+        <v>0.9999951895163521</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9998097823545974</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.0001902176454026128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9997955500353427</v>
+        <v>3.913343454033283E-05</v>
       </c>
       <c r="E19">
-        <v>0.0002044499646572939</v>
+        <v>0.9999608665654597</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9997945202590899</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.0002054797409101194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9998332039653358</v>
+        <v>0.9972101428401919</v>
       </c>
       <c r="E21">
-        <v>0.000166796034664185</v>
+        <v>0.002789857159808062</v>
       </c>
       <c r="F21">
-        <v>0.8780964016914368</v>
+        <v>3.117188930511475</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
